--- a/cw/3/Activities/02-Stu_LineAndBar/Unsolved/StudentGrades_Unsolved.xlsx
+++ b/cw/3/Activities/02-Stu_LineAndBar/Unsolved/StudentGrades_Unsolved.xlsx
@@ -1,19 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\3\Activities\03-Stu_LineAndBar\Unsolved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kaboni/Desktop/RBootcamp/RBootcamp/cw/3/Activities/02-Stu_LineAndBar/Unsolved/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A8A08F-D4D4-BD4C-B452-C0AAE1F69F97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="14070"/>
+    <workbookView xWindow="31620" yWindow="-6340" windowWidth="26580" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$10</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$2:$D$10</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$2:$E$10</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$2:$F$10</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$G$2:$G$10</definedName>
+    <definedName name="GradesOverSemester">Sheet1!$A$1:$G$21</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -107,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,6 +171,3248 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Jan</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.105330927384077"/>
+          <c:y val="0.15319444444444447"/>
+          <c:w val="0.8585579615048119"/>
+          <c:h val="0.4415347039953339"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8A9-AD4B-B712-952C9975E8E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="737874639"/>
+        <c:axId val="737876287"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="737874639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737876287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="737876287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737874639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Feb</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B06E-E040-A2F7-4722ADC73B0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="694495599"/>
+        <c:axId val="694497247"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="694495599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694497247"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="694497247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694495599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Grades Over Semester</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE9B-834B-8920-E46DFCD1DAAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE9B-834B-8920-E46DFCD1DAAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EE9B-834B-8920-E46DFCD1DAAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="741112943"/>
+        <c:axId val="743537263"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="741112943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Semester</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="743537263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="743537263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Grades</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7999997165354779E-2"/>
+              <c:y val="0.45709451046332783"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="741112943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>182282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{153CD023-E5A9-3D4E-9BE1-690F73A5EA1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F4762A-8C05-B44D-A76F-50F2C6A25AA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>463176</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>194235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>164353</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09705613-8FEF-AF41-8CB8-BF53E5EADF28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,20 +3711,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="12" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="12" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -489,7 +3744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +3772,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -545,7 +3800,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -573,7 +3828,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -601,7 +3856,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -629,7 +3884,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -657,7 +3912,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -685,7 +3940,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -713,7 +3968,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -741,7 +3996,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -769,7 +4024,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -797,7 +4052,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -825,7 +4080,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -853,7 +4108,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -881,7 +4136,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -909,7 +4164,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -937,7 +4192,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -965,7 +4220,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -993,7 +4248,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1021,7 +4276,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1051,5 +4306,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>